--- a/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\squash-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF3E20-FB6B-42C6-8780-EF70BDB296C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B3FBA-6C5A-4814-B39C-DFFC3DCC1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14520" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Profil</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>MSS/CDA.01.01.00</t>
+  </si>
+  <si>
+    <t>VA N-1</t>
   </si>
 </sst>
 </file>
@@ -687,11 +690,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -728,7 +731,7 @@
     <col min="31" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
@@ -819,8 +822,11 @@
       <c r="AD1" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="AE1" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="19" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:31" s="19" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>25</v>
       </c>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\squash-plugin\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B3FBA-6C5A-4814-B39C-DFFC3DCC1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39EBA6-3E81-4E08-8678-321B5FCBF8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14520" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Exigences!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Exigences!$B$1:$AE$1</definedName>
     <definedName name="appDefaut">#REF!</definedName>
     <definedName name="Applicable">#REF!</definedName>
     <definedName name="appNonApp">#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Profil</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>VA N-1</t>
+  </si>
+  <si>
+    <t>Périmètre</t>
+  </si>
+  <si>
+    <t>Vague 1</t>
+  </si>
+  <si>
+    <t>Inchangée</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -198,45 +210,45 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -327,7 +339,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,6 +420,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -690,233 +714,244 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE15:AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.92578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.2109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.92578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="35.2109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.0703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="42.2109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="66.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.5703125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="30.5703125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="7" customWidth="1"/>
-    <col min="27" max="27" width="30.5703125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="30.5703125" style="6" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" style="7" customWidth="1"/>
-    <col min="31" max="16384" width="9.28515625" style="8"/>
+    <col min="1" max="1" width="10.0703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.92578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.2109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.92578125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="35.2109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.0703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.2109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="66.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="66.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="30.5703125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="30.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="7" customWidth="1"/>
+    <col min="28" max="28" width="30.5703125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" style="7" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" style="7" customWidth="1"/>
+    <col min="32" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="19" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:32" s="19" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="18" t="s">
-        <v>31</v>
+      <c r="AC2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AE2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39EBA6-3E81-4E08-8678-321B5FCBF8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E545D-3EBD-4D4F-9D71-01D02A21A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Profil</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Criticité</t>
+  </si>
+  <si>
+    <t>Mineure</t>
   </si>
 </sst>
 </file>
@@ -714,11 +720,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AE16" sqref="AE15:AE16"/>
+      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -753,10 +759,12 @@
     <col min="29" max="29" width="18.5703125" style="7" customWidth="1"/>
     <col min="30" max="30" width="30.5703125" style="6" customWidth="1"/>
     <col min="31" max="31" width="18.5703125" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="9.28515625" style="8"/>
+    <col min="32" max="32" width="9.28515625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" style="8" customWidth="1"/>
+    <col min="34" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>41</v>
       </c>
@@ -853,8 +861,11 @@
       <c r="AF1" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="AG1" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:33" s="19" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
@@ -948,6 +959,9 @@
       </c>
       <c r="AF2" s="25" t="s">
         <v>44</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E545D-3EBD-4D4F-9D71-01D02A21A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BD382-49BB-4C27-B7F5-A9FE673181B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="-18120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Profil</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Mineure</t>
+  </si>
+  <si>
+    <t>Ordre</t>
   </si>
 </sst>
 </file>
@@ -720,11 +723,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AB13" sqref="AB13"/>
+      <selection pane="bottomLeft" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -760,11 +763,11 @@
     <col min="30" max="30" width="30.5703125" style="6" customWidth="1"/>
     <col min="31" max="31" width="18.5703125" style="7" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="13.5703125" style="8" customWidth="1"/>
-    <col min="34" max="16384" width="9.28515625" style="8"/>
+    <col min="33" max="34" width="13.5703125" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>41</v>
       </c>
@@ -864,8 +867,11 @@
       <c r="AG1" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="AH1" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="19" customFormat="1" ht="68.25" customHeight="1">
+    <row r="2" spans="1:34" s="19" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
@@ -962,6 +968,9 @@
       </c>
       <c r="AG2" s="25" t="s">
         <v>46</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
+++ b/segur-rapport/src/main/resources/template-segur-requirement-export-modifie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flabatie\Documents\ENV-ANS\19-PLUGIN-SQUASH\Claire2\squash-plugin\segur-rapport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BD382-49BB-4C27-B7F5-A9FE673181B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46417D4-BE53-409F-8DB1-70F826CB3793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12975" yWindow="-18120" windowWidth="27495" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -725,9 +725,9 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomLeft" activeCell="AA9" sqref="AA7:AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15.5"/>
@@ -737,30 +737,30 @@
     <col min="3" max="3" width="31.2109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.92578125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="35.2109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.0703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.2109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="66.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="66.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="30.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="30.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="7" customWidth="1"/>
-    <col min="26" max="26" width="30.5703125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="30.5703125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="7" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="35.2109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.0703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="42.2109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="50.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="37.42578125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="37.42578125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="37.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="37.42578125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="37.42578125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="37.42578125" style="7" customWidth="1"/>
     <col min="31" max="31" width="18.5703125" style="7" customWidth="1"/>
     <col min="32" max="32" width="9.28515625" style="8" customWidth="1"/>
     <col min="33" max="34" width="13.5703125" style="8" customWidth="1"/>
@@ -783,80 +783,80 @@
       <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>35</v>
@@ -887,79 +887,79 @@
       <c r="E2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" s="18"/>
       <c r="G2" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="18"/>
+      <c r="AD2" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="AE2" s="25" t="s">
         <v>43</v>
       </c>
@@ -974,7 +974,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AE2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
